--- a/Code/Jupiter/Connect4/Logs/PPO_matrix/meta_ranking.xlsx
+++ b/Code/Jupiter/Connect4/Logs/PPO_matrix/meta_ranking.xlsx
@@ -14,42 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>meta_score</t>
   </si>
   <si>
-    <t>DIST_XIII</t>
-  </si>
-  <si>
-    <t>RND_34</t>
-  </si>
-  <si>
-    <t>RND_36</t>
-  </si>
-  <si>
-    <t>RND_33</t>
-  </si>
-  <si>
-    <t>RND_32</t>
-  </si>
-  <si>
-    <t>RND_27b</t>
-  </si>
-  <si>
-    <t>RND_35</t>
-  </si>
-  <si>
-    <t>DIST_XII</t>
-  </si>
-  <si>
-    <t>RND_30</t>
-  </si>
-  <si>
-    <t>RND_29</t>
-  </si>
-  <si>
-    <t>RND_31</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>MIX_11</t>
+  </si>
+  <si>
+    <t>MIX_7a</t>
+  </si>
+  <si>
+    <t>MIX_7b</t>
+  </si>
+  <si>
+    <t>MIX_8</t>
+  </si>
+  <si>
+    <t>MIX_10</t>
   </si>
 </sst>
 </file>
@@ -407,103 +392,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0.7472500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.45325</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.55</v>
+        <v>0.4390000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.35</v>
+        <v>0.3595</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Jupiter/Connect4/Logs/PPO_matrix/meta_ranking.xlsx
+++ b/Code/Jupiter/Connect4/Logs/PPO_matrix/meta_ranking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>meta_score</t>
   </si>
@@ -22,19 +22,28 @@
     <t>model</t>
   </si>
   <si>
-    <t>MIX_11</t>
-  </si>
-  <si>
-    <t>MIX_7a</t>
-  </si>
-  <si>
-    <t>MIX_7b</t>
-  </si>
-  <si>
-    <t>MIX_8</t>
-  </si>
-  <si>
-    <t>MIX_10</t>
+    <t>MIX_44</t>
+  </si>
+  <si>
+    <t>MIX_34</t>
+  </si>
+  <si>
+    <t>MIX_45b</t>
+  </si>
+  <si>
+    <t>MIX_54</t>
+  </si>
+  <si>
+    <t>MIX_55</t>
+  </si>
+  <si>
+    <t>MIX_42b</t>
+  </si>
+  <si>
+    <t>MIX_58</t>
+  </si>
+  <si>
+    <t>MIX_57a</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.7472500000000001</v>
+        <v>0.6407142857142858</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -419,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.501</v>
+        <v>0.5945714285714285</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -427,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.45325</v>
+        <v>0.5378571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -435,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.4390000000000001</v>
+        <v>0.5325714285714286</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -443,7 +452,31 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3595</v>
+        <v>0.4827142857142857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.4501428571428571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.4185714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.3428571428571429</v>
       </c>
     </row>
   </sheetData>
